--- a/doc/Zeszyt1.xlsx
+++ b/doc/Zeszyt1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21420" windowHeight="9975"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20730" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,23 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+  <si>
+    <t>bez OpenCL</t>
+  </si>
+  <si>
+    <t>i5</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -275,11 +292,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="81920384"/>
-        <c:axId val="52489216"/>
+        <c:axId val="72729728"/>
+        <c:axId val="72732032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81920384"/>
+        <c:axId val="72729728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -311,12 +328,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52489216"/>
+        <c:crossAx val="72732032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52489216"/>
+        <c:axId val="72732032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -347,7 +364,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81920384"/>
+        <c:crossAx val="72729728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -360,7 +377,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -370,16 +387,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -686,15 +703,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:D11"/>
+  <dimension ref="A2:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="5" spans="1:4">
+    <row r="2" spans="1:10">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>6</v>
       </c>
@@ -707,8 +755,11 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>7</v>
       </c>
@@ -721,8 +772,11 @@
       <c r="D6">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>8</v>
       </c>
@@ -735,8 +789,11 @@
       <c r="D7">
         <v>1061</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>9</v>
       </c>
@@ -749,8 +806,11 @@
       <c r="D8">
         <v>22948</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>10</v>
       </c>
@@ -763,8 +823,11 @@
       <c r="D9">
         <v>91122</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>21879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>11</v>
       </c>
@@ -777,8 +840,11 @@
       <c r="D10">
         <v>122588</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>161496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>12</v>
       </c>
@@ -791,10 +857,130 @@
       <c r="D11">
         <v>265572</v>
       </c>
+      <c r="E11">
+        <v>953901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>843</v>
+      </c>
+      <c r="H14">
+        <v>4234</v>
+      </c>
+      <c r="I14">
+        <v>5109</v>
+      </c>
+      <c r="J14">
+        <v>115264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>125</v>
+      </c>
+      <c r="G15">
+        <v>1436</v>
+      </c>
+      <c r="H15">
+        <v>5179</v>
+      </c>
+      <c r="I15">
+        <v>6801</v>
+      </c>
+      <c r="J15">
+        <v>155553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>63</v>
+      </c>
+      <c r="F16">
+        <v>1061</v>
+      </c>
+      <c r="G16">
+        <v>22948</v>
+      </c>
+      <c r="H16">
+        <v>91122</v>
+      </c>
+      <c r="I16">
+        <v>122588</v>
+      </c>
+      <c r="J16">
+        <v>265572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>85</v>
+      </c>
+      <c r="F17">
+        <v>545</v>
+      </c>
+      <c r="G17">
+        <v>3322</v>
+      </c>
+      <c r="H17">
+        <v>21879</v>
+      </c>
+      <c r="I17">
+        <v>161496</v>
+      </c>
+      <c r="J17">
+        <v>953901</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
